--- a/data/awsdata.xlsx
+++ b/data/awsdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FFDC1-257F-4241-91DA-2A80568A7EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E478D0-244B-4ED4-AECE-B74C3242D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
+    <workbookView xWindow="1200" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
   </bookViews>
   <sheets>
     <sheet name="September" sheetId="1" r:id="rId1"/>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593AC91C-CFC4-433E-83EC-9477B450705E}">
   <dimension ref="A1:G497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>31.092452830188684</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>31.007272727272724</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>31.591304347826092</v>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>31.489090909090912</v>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>32.021739130434774</v>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
         <v>29.600000000000009</v>
@@ -1101,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>31.472000000000008</v>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>31.103703703703701</v>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>30.133898305084738</v>
@@ -1170,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>30.330434782608698</v>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
         <v>31.543999999999997</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>31.652272727272724</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <v>31.931481481481473</v>
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
         <v>31.632692307692306</v>
@@ -1285,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1">
         <v>31.908695652173911</v>
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <v>31.052083333333332</v>
@@ -1331,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
         <v>30.939583333333331</v>
@@ -1354,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
         <v>30.256603773584906</v>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>29.15094339622642</v>
@@ -1400,7 +1400,7 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1">
         <v>29.87446808510639</v>
@@ -1423,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1">
         <v>30.128571428571437</v>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1">
         <v>31.094736842105274</v>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1">
         <v>30.365517241379319</v>
@@ -1492,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1">
         <v>31.463157894736849</v>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1">
         <v>29.182142857142853</v>
@@ -1538,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1">
         <v>29.214814814814819</v>
@@ -1561,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1">
         <v>30.842857142857138</v>
@@ -1584,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1">
         <v>31.265384615384612</v>
@@ -1607,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
         <v>28.808888888888887</v>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E32" s="1">
         <v>30.563999999999986</v>

--- a/data/awsdata.xlsx
+++ b/data/awsdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E478D0-244B-4ED4-AECE-B74C3242D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2EEE4A-A040-4C6E-B6E3-9E0DFC9E1E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
   </bookViews>
   <sheets>
     <sheet name="September" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
   <si>
     <t>StationID</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Min_Temperature</t>
+  </si>
+  <si>
+    <t>BoskampAWS</t>
   </si>
 </sst>
 </file>
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593AC91C-CFC4-433E-83EC-9477B450705E}">
   <dimension ref="A1:G497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,100 +1645,720 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>2025</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27.821527777777774</v>
+      </c>
+      <c r="F33" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>2025</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>27.878472222222229</v>
+      </c>
+      <c r="F34" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G34" s="1">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>2025</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>28.334751773049639</v>
+      </c>
+      <c r="F35" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G35" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>2025</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>29.155797101449274</v>
+      </c>
+      <c r="F36" s="1">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G36" s="1">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>2025</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>28.829861111111125</v>
+      </c>
+      <c r="F37" s="1">
+        <v>36</v>
+      </c>
+      <c r="G37" s="1">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>2025</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>28.424999999999997</v>
+      </c>
+      <c r="F38" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>2025</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
+        <v>28.292361111111109</v>
+      </c>
+      <c r="F39" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>2025</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>26.986805555555542</v>
+      </c>
+      <c r="F40" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="G40" s="1">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>2025</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>27.256249999999994</v>
+      </c>
+      <c r="F41" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2025</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1">
+        <v>27.747916666666669</v>
+      </c>
+      <c r="F42" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>2025</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <v>28.728472222222226</v>
+      </c>
+      <c r="F43" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>2025</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
+        <v>29.020833333333329</v>
+      </c>
+      <c r="F44" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>2025</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1">
+        <v>29.091549295774673</v>
+      </c>
+      <c r="F45" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>2025</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1">
+        <v>29.392142857142854</v>
+      </c>
+      <c r="F46" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>2025</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1">
+        <v>29.16521739130436</v>
+      </c>
+      <c r="F47" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G47" s="1">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>2025</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1">
+        <v>28.684615384615395</v>
+      </c>
+      <c r="F48" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G48" s="1">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>2025</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1">
+        <v>28.679166666666674</v>
+      </c>
+      <c r="F49" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>2025</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1">
+        <v>28.12222222222222</v>
+      </c>
+      <c r="F50" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G50" s="1">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>2025</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1">
+        <v>27.641666666666676</v>
+      </c>
+      <c r="F51" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G51" s="1">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>2025</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1">
+        <v>26.661594202898552</v>
+      </c>
+      <c r="F52" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="G52" s="1">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1">
+        <v>25.506944444444432</v>
+      </c>
+      <c r="F53" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1">
+        <v>27.440579710144942</v>
+      </c>
+      <c r="F54" s="1">
+        <v>33.9</v>
+      </c>
+      <c r="G54" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>2025</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+      <c r="E55" s="1">
+        <v>29.091666666666672</v>
+      </c>
+      <c r="F55" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G55" s="1">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>2025</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1">
+        <v>28.941666666666656</v>
+      </c>
+      <c r="F56" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>2025</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57" s="1">
+        <v>29.059027777777779</v>
+      </c>
+      <c r="F57" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>2025</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>26</v>
+      </c>
+      <c r="E58" s="1">
+        <v>27.819718309859173</v>
+      </c>
+      <c r="F58" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G58" s="1">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>2025</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1">
+        <v>26.777536231884049</v>
+      </c>
+      <c r="F59" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G59" s="1">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>2025</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+      <c r="E60" s="1">
+        <v>27.851388888888916</v>
+      </c>
+      <c r="F60" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G60" s="1">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>2025</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61" s="1">
+        <v>28.2326388888889</v>
+      </c>
+      <c r="F61" s="1">
+        <v>35</v>
+      </c>
+      <c r="G61" s="1">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>2025</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62" s="1">
+        <v>27.397916666666671</v>
+      </c>
+      <c r="F62" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G62" s="1">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>2025</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1">
+        <v>27.832394366197171</v>
+      </c>
+      <c r="F63" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="G63" s="1">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">

--- a/data/awsdata.xlsx
+++ b/data/awsdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2EEE4A-A040-4C6E-B6E3-9E0DFC9E1E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D36B7-6BE0-4A72-B034-92F07414174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">September!$A$1:$E$497</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
   <si>
     <t>StationID</t>
   </si>
@@ -50,6 +61,9 @@
   </si>
   <si>
     <t>BoskampAWS</t>
+  </si>
+  <si>
+    <t>Rainfall</t>
   </si>
 </sst>
 </file>
@@ -894,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593AC91C-CFC4-433E-83EC-9477B450705E}">
-  <dimension ref="A1:G497"/>
+  <dimension ref="A1:H497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +923,7 @@
     <col min="5" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,8 +945,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -954,8 +971,11 @@
       <c r="G2" s="1">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +997,11 @@
       <c r="G3" s="1">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1000,8 +1023,11 @@
       <c r="G4" s="1">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1023,8 +1049,11 @@
       <c r="G5" s="1">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1046,8 +1075,11 @@
       <c r="G6" s="1">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1069,8 +1101,11 @@
       <c r="G7" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1092,8 +1127,11 @@
       <c r="G8" s="1">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1115,8 +1153,11 @@
       <c r="G9" s="1">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1138,8 +1179,11 @@
       <c r="G10" s="1">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1161,8 +1205,11 @@
       <c r="G11" s="1">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1184,8 +1231,11 @@
       <c r="G12" s="1">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1207,8 +1257,11 @@
       <c r="G13" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1230,8 +1283,11 @@
       <c r="G14" s="1">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1253,8 +1309,11 @@
       <c r="G15" s="1">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1276,8 +1335,11 @@
       <c r="G16" s="1">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1299,8 +1361,11 @@
       <c r="G17" s="1">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1322,8 +1387,11 @@
       <c r="G18" s="1">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1345,8 +1413,11 @@
       <c r="G19" s="1">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1368,8 +1439,11 @@
       <c r="G20" s="1">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1391,8 +1465,11 @@
       <c r="G21" s="1">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1414,8 +1491,11 @@
       <c r="G22" s="1">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1437,8 +1517,11 @@
       <c r="G23" s="1">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1460,8 +1543,11 @@
       <c r="G24" s="1">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1483,8 +1569,11 @@
       <c r="G25" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1506,8 +1595,11 @@
       <c r="G26" s="1">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1529,8 +1621,11 @@
       <c r="G27" s="1">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1552,8 +1647,11 @@
       <c r="G28" s="1">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1575,8 +1673,11 @@
       <c r="G29" s="1">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1598,8 +1699,11 @@
       <c r="G30" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1621,8 +1725,11 @@
       <c r="G31" s="1">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1644,8 +1751,11 @@
       <c r="G32" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1667,8 +1777,11 @@
       <c r="G33" s="1">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1690,8 +1803,11 @@
       <c r="G34" s="1">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1713,8 +1829,11 @@
       <c r="G35" s="1">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1736,8 +1855,11 @@
       <c r="G36" s="1">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1759,8 +1881,11 @@
       <c r="G37" s="1">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1782,8 +1907,11 @@
       <c r="G38" s="1">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1805,8 +1933,11 @@
       <c r="G39" s="1">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1828,8 +1959,11 @@
       <c r="G40" s="1">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1851,8 +1985,11 @@
       <c r="G41" s="1">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1874,8 +2011,11 @@
       <c r="G42" s="1">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1897,8 +2037,11 @@
       <c r="G43" s="1">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1920,8 +2063,11 @@
       <c r="G44" s="1">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1943,8 +2089,11 @@
       <c r="G45" s="1">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1966,8 +2115,11 @@
       <c r="G46" s="1">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1989,8 +2141,11 @@
       <c r="G47" s="1">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2012,8 +2167,11 @@
       <c r="G48" s="1">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2035,8 +2193,11 @@
       <c r="G49" s="1">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2058,8 +2219,11 @@
       <c r="G50" s="1">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2081,8 +2245,11 @@
       <c r="G51" s="1">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2104,8 +2271,11 @@
       <c r="G52" s="1">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2127,8 +2297,11 @@
       <c r="G53" s="1">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2150,8 +2323,11 @@
       <c r="G54" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2173,8 +2349,11 @@
       <c r="G55" s="1">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2196,8 +2375,11 @@
       <c r="G56" s="1">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2219,8 +2401,11 @@
       <c r="G57" s="1">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2242,8 +2427,11 @@
       <c r="G58" s="1">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2265,8 +2453,11 @@
       <c r="G59" s="1">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2288,8 +2479,11 @@
       <c r="G60" s="1">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2311,8 +2505,11 @@
       <c r="G61" s="1">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2334,8 +2531,11 @@
       <c r="G62" s="1">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2357,8 +2557,11 @@
       <c r="G63" s="1">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">

--- a/data/awsdata.xlsx
+++ b/data/awsdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D36B7-6BE0-4A72-B034-92F07414174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33290E7-D072-41A5-B66F-631E9AE7EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
   </bookViews>
   <sheets>
     <sheet name="September" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>StationID</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Rainfall</t>
+  </si>
+  <si>
+    <t>WindSpeedMax</t>
+  </si>
+  <si>
+    <t>WindSpeedAVG</t>
   </si>
 </sst>
 </file>
@@ -908,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593AC91C-CFC4-433E-83EC-9477B450705E}">
-  <dimension ref="A1:H497"/>
+  <dimension ref="A1:J497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,9 +927,11 @@
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,8 +956,14 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -974,8 +988,14 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>11.788888888888891</v>
+      </c>
+      <c r="J2" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1000,8 +1020,14 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>11.759574468085106</v>
+      </c>
+      <c r="J3" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1052,14 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>11.320833333333333</v>
+      </c>
+      <c r="J4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1052,8 +1084,14 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>12.878260869565219</v>
+      </c>
+      <c r="J5" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1078,8 +1116,14 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>14.721818181818184</v>
+      </c>
+      <c r="J6" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1148,14 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>13.21086956521739</v>
+      </c>
+      <c r="J7" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1130,8 +1180,14 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>9.5155555555555544</v>
+      </c>
+      <c r="J8" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1156,8 +1212,14 @@
       <c r="H9" s="1">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>12.256818181818183</v>
+      </c>
+      <c r="J9" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1182,8 +1244,14 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>16.591666666666665</v>
+      </c>
+      <c r="J10" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1208,8 +1276,14 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>11.566666666666665</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1308,14 @@
       <c r="H12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>11.744444444444444</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1260,8 +1340,14 @@
       <c r="H13" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>12.136363636363633</v>
+      </c>
+      <c r="J13" s="1">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1286,8 +1372,14 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>11.343589743589741</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1312,8 +1404,14 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>13.481250000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1338,8 +1436,14 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>13.37142857142857</v>
+      </c>
+      <c r="J16" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1364,8 +1468,14 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>16.290476190476191</v>
+      </c>
+      <c r="J17" s="1">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1390,8 +1500,14 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>11.841666666666667</v>
+      </c>
+      <c r="J18" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1416,8 +1532,14 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>13.045833333333336</v>
+      </c>
+      <c r="J19" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1442,8 +1564,14 @@
       <c r="H20" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>14.339622641509433</v>
+      </c>
+      <c r="J20" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1468,8 +1596,14 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>11.615094339622642</v>
+      </c>
+      <c r="J21" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1494,8 +1628,14 @@
       <c r="H22" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>11.17234042553191</v>
+      </c>
+      <c r="J22" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1520,8 +1660,14 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>13.342105263157896</v>
+      </c>
+      <c r="J23" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1546,8 +1692,14 @@
       <c r="H24" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>15.229090909090912</v>
+      </c>
+      <c r="J24" s="1">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1572,8 +1724,14 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>12.975438596491225</v>
+      </c>
+      <c r="J25" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1598,8 +1756,14 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>12.996296296296293</v>
+      </c>
+      <c r="J26" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1624,8 +1788,14 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>10.751851851851855</v>
+      </c>
+      <c r="J27" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1650,8 +1820,14 @@
       <c r="H28" s="1">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>11.481481481481486</v>
+      </c>
+      <c r="J28" s="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1676,8 +1852,14 @@
       <c r="H29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>14.025000000000004</v>
+      </c>
+      <c r="J29" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1702,8 +1884,14 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>14.472549019607843</v>
+      </c>
+      <c r="J30" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1728,8 +1916,14 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>10.511111111111111</v>
+      </c>
+      <c r="J31" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1754,8 +1948,14 @@
       <c r="H32" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>13.728000000000003</v>
+      </c>
+      <c r="J32" s="1">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1780,8 +1980,14 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>2.9798611111111093</v>
+      </c>
+      <c r="J33">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1806,8 +2012,14 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>3.2534722222222219</v>
+      </c>
+      <c r="J34">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1832,8 +2044,14 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>3.0704545454545458</v>
+      </c>
+      <c r="J35">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1858,8 +2076,14 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>3.5309523809523808</v>
+      </c>
+      <c r="J36">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1884,8 +2108,14 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>3.6027972027972033</v>
+      </c>
+      <c r="J37">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1910,8 +2140,14 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>3.265079365079365</v>
+      </c>
+      <c r="J38">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1936,8 +2172,14 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>3.2729166666666663</v>
+      </c>
+      <c r="J39">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1962,8 +2204,14 @@
       <c r="H40" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>2.7384057971014495</v>
+      </c>
+      <c r="J40">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1988,8 +2236,14 @@
       <c r="H41" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>3.1724637681159411</v>
+      </c>
+      <c r="J41">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2014,8 +2268,14 @@
       <c r="H42" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>3.1270833333333332</v>
+      </c>
+      <c r="J42">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2040,8 +2300,14 @@
       <c r="H43" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>3.1944444444444451</v>
+      </c>
+      <c r="J43">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2066,8 +2332,14 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>3.3902777777777771</v>
+      </c>
+      <c r="J44">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2092,8 +2364,14 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>3.047826086956523</v>
+      </c>
+      <c r="J45">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2118,8 +2396,14 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>3.5246376811594216</v>
+      </c>
+      <c r="J46">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2144,8 +2428,14 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>4.0333333333333314</v>
+      </c>
+      <c r="J47">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2170,8 +2460,14 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>3.8550724637681153</v>
+      </c>
+      <c r="J48">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2196,8 +2492,14 @@
       <c r="H49" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <v>3.465277777777779</v>
+      </c>
+      <c r="J49">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2222,8 +2524,14 @@
       <c r="H50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>3.2514084507042256</v>
+      </c>
+      <c r="J50">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2248,8 +2556,14 @@
       <c r="H51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>4.0398550724637676</v>
+      </c>
+      <c r="J51">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2274,8 +2588,14 @@
       <c r="H52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>3.0888888888888899</v>
+      </c>
+      <c r="J52">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2300,8 +2620,14 @@
       <c r="H53" s="1">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>2.8756944444444441</v>
+      </c>
+      <c r="J53">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2326,8 +2652,14 @@
       <c r="H54" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>3.8125984251968514</v>
+      </c>
+      <c r="J54">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2352,8 +2684,14 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>4.1591240875912394</v>
+      </c>
+      <c r="J55">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2378,8 +2716,14 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <v>4.0065040650406498</v>
+      </c>
+      <c r="J56">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2404,8 +2748,14 @@
       <c r="H57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>3.5135714285714306</v>
+      </c>
+      <c r="J57">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2430,8 +2780,14 @@
       <c r="H58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>3.3971014492753628</v>
+      </c>
+      <c r="J58">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2456,8 +2812,14 @@
       <c r="H59" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <v>3.2152173913043511</v>
+      </c>
+      <c r="J59">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2482,8 +2844,14 @@
       <c r="H60" s="1">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <v>4.1605839416058359</v>
+      </c>
+      <c r="J60">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2508,8 +2876,14 @@
       <c r="H61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>3.7456521739130451</v>
+      </c>
+      <c r="J61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2534,8 +2908,14 @@
       <c r="H62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <v>3.3224637681159432</v>
+      </c>
+      <c r="J62">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2560,8 +2940,14 @@
       <c r="H63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <v>3.2261538461538444</v>
+      </c>
+      <c r="J63">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">

--- a/data/awsdata.xlsx
+++ b/data/awsdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33290E7-D072-41A5-B66F-631E9AE7EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B1B23-7269-49C0-BF3E-AA9BE9845AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
   </bookViews>
   <sheets>
     <sheet name="September" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="13">
   <si>
     <t>StationID</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>WindSpeedAVG</t>
+  </si>
+  <si>
+    <t>WindDirectionAVG</t>
   </si>
 </sst>
 </file>
@@ -556,9 +559,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593AC91C-CFC4-433E-83EC-9477B450705E}">
-  <dimension ref="A1:J497"/>
+  <dimension ref="A1:K497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,9 +933,10 @@
     <col min="5" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,8 +967,11 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1123,7 +1131,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1291,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1986,8 +1994,11 @@
       <c r="J33">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="2">
+        <v>133.3784722222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2018,8 +2029,11 @@
       <c r="J34">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="2">
+        <v>123.99375000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2050,8 +2064,11 @@
       <c r="J35">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="2">
+        <v>134.61060606060605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2082,8 +2099,11 @@
       <c r="J36">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="2">
+        <v>113.69920634920638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2114,8 +2134,11 @@
       <c r="J37">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="2">
+        <v>116.27391304347826</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2146,8 +2169,11 @@
       <c r="J38">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="2">
+        <v>128.87777777777777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2178,8 +2204,11 @@
       <c r="J39">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="2">
+        <v>109.59652777777779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2210,8 +2239,11 @@
       <c r="J40">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="2">
+        <v>147.76884057971026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2242,8 +2274,11 @@
       <c r="J41">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="2">
+        <v>123.96014492753623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2274,8 +2309,11 @@
       <c r="J42">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="2">
+        <v>129.1597222222222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2306,8 +2344,11 @@
       <c r="J43">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="2">
+        <v>118.59583333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2338,8 +2379,11 @@
       <c r="J44">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="2">
+        <v>121.01736111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2414,11 @@
       <c r="J45">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="2">
+        <v>125.56666666666665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2402,8 +2449,11 @@
       <c r="J46">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="2">
+        <v>113.7652173913043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2434,8 +2484,11 @@
       <c r="J47">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="2">
+        <v>111.82463768115946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2466,8 +2519,11 @@
       <c r="J48">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="2">
+        <v>110.72101449275367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2498,8 +2554,11 @@
       <c r="J49">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="2">
+        <v>117.71944444444446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2530,8 +2589,11 @@
       <c r="J50">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="2">
+        <v>114.89097222222229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2562,8 +2624,11 @@
       <c r="J51">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="2">
+        <v>107.1536231884058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2594,8 +2659,11 @@
       <c r="J52">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="2">
+        <v>125.6142857142857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2626,8 +2694,11 @@
       <c r="J53">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="2">
+        <v>119.84305555555551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2658,8 +2729,11 @@
       <c r="J54">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="2">
+        <v>112.87936507936507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2690,8 +2764,11 @@
       <c r="J55">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="2">
+        <v>108.47883211678828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2722,8 +2799,11 @@
       <c r="J56">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="2">
+        <v>110.89478260869564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2754,8 +2834,11 @@
       <c r="J57">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="2">
+        <v>114.17426470588236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2786,8 +2869,11 @@
       <c r="J58">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="2">
+        <v>111.37971014492754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2904,11 @@
       <c r="J59">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="2">
+        <v>119.4585185185185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2850,8 +2939,11 @@
       <c r="J60">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="2">
+        <v>114.98985507246375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2882,8 +2974,11 @@
       <c r="J61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="2">
+        <v>115.76159420289854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2914,8 +3009,11 @@
       <c r="J62">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="2">
+        <v>108.51811594202891</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2946,8 +3044,11 @@
       <c r="J63">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="2">
+        <v>125.20230769230768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">

--- a/data/awsdata.xlsx
+++ b/data/awsdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B1B23-7269-49C0-BF3E-AA9BE9845AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F9269F-AAD4-4FFC-8D17-D8D0B3CFB8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FCFC82-A5BA-4553-89C8-76720EB0878F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="15">
   <si>
     <t>StationID</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>WindDirectionAVG</t>
+  </si>
+  <si>
+    <t>ApoeraAWS</t>
+  </si>
+  <si>
+    <t>EAGAWS</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,10 @@
   <dimension ref="A1:K497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,29 +988,17 @@
         <v>2025</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>31.073333333333331</v>
-      </c>
-      <c r="F2" s="1">
-        <v>33.6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27.2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>11.788888888888891</v>
-      </c>
-      <c r="J2" s="1">
-        <v>16.100000000000001</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1011,29 +1008,17 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>31.092452830188684</v>
-      </c>
-      <c r="F3" s="1">
-        <v>33.1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>11.759574468085106</v>
-      </c>
-      <c r="J3" s="1">
-        <v>16.899999999999999</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1043,28 +1028,24 @@
         <v>2025</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>31.007272727272724</v>
+        <v>30.996666666666666</v>
       </c>
       <c r="F4" s="1">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1">
-        <v>26.8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
+        <v>32.4</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1">
-        <v>11.320833333333333</v>
+        <v>14.958333333333334</v>
       </c>
       <c r="J4" s="1">
-        <v>15</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1075,28 +1056,26 @@
         <v>2025</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>31.591304347826092</v>
+        <v>30.272222222222215</v>
       </c>
       <c r="F5" s="1">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="G5" s="1">
-        <v>27.6</v>
-      </c>
+        <v>31.4</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>12.878260869565219</v>
+        <v>9.81666666666667</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,28 +1086,26 @@
         <v>2025</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>31.489090909090912</v>
+        <v>29.690384615384623</v>
       </c>
       <c r="F6" s="1">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="G6" s="1">
-        <v>28.1</v>
-      </c>
+        <v>31.5</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>14.721818181818184</v>
+        <v>12.454761904761906</v>
       </c>
       <c r="J6" s="1">
-        <v>18.5</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1139,28 +1116,31 @@
         <v>2025</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>32.021739130434774</v>
+        <v>28.464473684210521</v>
       </c>
       <c r="F7" s="1">
-        <v>34.299999999999997</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G7" s="1">
-        <v>28.5</v>
+        <v>23.1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>13.21086956521739</v>
+        <v>10.996923076923078</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3</v>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>77.569230769230742</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1171,28 +1151,31 @@
         <v>2025</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>29.600000000000009</v>
+        <v>26.221428571428572</v>
       </c>
       <c r="F8" s="1">
-        <v>33</v>
+        <v>30.8</v>
       </c>
       <c r="G8" s="1">
-        <v>23.4</v>
+        <v>22.4</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="1">
-        <v>9.5155555555555544</v>
+        <v>9.2325396825396808</v>
       </c>
       <c r="J8" s="1">
-        <v>21.6</v>
+        <v>22.2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>107.92777777777779</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1203,28 +1186,31 @@
         <v>2025</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>31.472000000000008</v>
+        <v>26.078787878787875</v>
       </c>
       <c r="F9" s="1">
-        <v>33.4</v>
+        <v>30.8</v>
       </c>
       <c r="G9" s="1">
-        <v>28.1</v>
+        <v>23.5</v>
       </c>
       <c r="H9" s="1">
-        <v>13.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>12.256818181818183</v>
+        <v>7.4055555555555532</v>
       </c>
       <c r="J9" s="1">
-        <v>18.100000000000001</v>
+        <v>19.8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>108.71349206349205</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1235,28 +1221,31 @@
         <v>2025</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>31.103703703703701</v>
+        <v>26.142063492063492</v>
       </c>
       <c r="F10" s="1">
-        <v>32.9</v>
+        <v>31.2</v>
       </c>
       <c r="G10" s="1">
-        <v>28.1</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I10" s="1">
-        <v>16.591666666666665</v>
+        <v>10.099186991869917</v>
       </c>
       <c r="J10" s="1">
-        <v>22.2</v>
+        <v>24.9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>114.87460317460314</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1267,28 +1256,31 @@
         <v>2025</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>30.133898305084738</v>
+        <v>25.638888888888889</v>
       </c>
       <c r="F11" s="1">
-        <v>32.700000000000003</v>
+        <v>30.7</v>
       </c>
       <c r="G11" s="1">
-        <v>23.5</v>
+        <v>22.3</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="1">
-        <v>11.566666666666665</v>
+        <v>9.0805555555555593</v>
       </c>
       <c r="J11" s="1">
-        <v>18.7</v>
+        <v>25.3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>117.74014084507039</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1299,28 +1291,31 @@
         <v>2025</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>30.330434782608698</v>
+        <v>25.630555555555549</v>
       </c>
       <c r="F12" s="1">
-        <v>33.200000000000003</v>
+        <v>30.3</v>
       </c>
       <c r="G12" s="1">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="I12" s="1">
-        <v>11.744444444444444</v>
+        <v>9.0777777777777828</v>
       </c>
       <c r="J12" s="1">
-        <v>20.8</v>
+        <v>24.5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>113.90416666666667</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1331,28 +1326,31 @@
         <v>2025</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>31.543999999999997</v>
+        <v>26.764341085271301</v>
       </c>
       <c r="F13" s="1">
-        <v>33.6</v>
+        <v>30.5</v>
       </c>
       <c r="G13" s="1">
-        <v>28</v>
+        <v>23.9</v>
       </c>
       <c r="H13" s="1">
-        <v>2.6</v>
+        <v>12.4</v>
       </c>
       <c r="I13" s="1">
-        <v>12.136363636363633</v>
+        <v>13.364285714285716</v>
       </c>
       <c r="J13" s="1">
-        <v>15.9</v>
+        <v>25.5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>98.599206349206341</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1363,28 +1361,31 @@
         <v>2025</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" s="1">
-        <v>31.652272727272724</v>
+        <v>26.522463768115966</v>
       </c>
       <c r="F14" s="1">
-        <v>34.299999999999997</v>
+        <v>29.2</v>
       </c>
       <c r="G14" s="1">
-        <v>28.1</v>
+        <v>23.3</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>11.343589743589741</v>
+        <v>13.146969696969705</v>
       </c>
       <c r="J14" s="1">
-        <v>15</v>
+        <v>30.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>90.403030303030306</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,28 +1396,31 @@
         <v>2025</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" s="1">
-        <v>31.931481481481473</v>
+        <v>26.822857142857146</v>
       </c>
       <c r="F15" s="1">
-        <v>34.4</v>
+        <v>29.7</v>
       </c>
       <c r="G15" s="1">
-        <v>28.4</v>
+        <v>24.5</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="1">
-        <v>13.481250000000001</v>
+        <v>11.907246376811599</v>
       </c>
       <c r="J15" s="1">
-        <v>17.100000000000001</v>
+        <v>22.4</v>
+      </c>
+      <c r="K15" s="2">
+        <v>87.373188405797094</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1427,31 +1431,34 @@
         <v>2025</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" s="1">
-        <v>31.632692307692306</v>
+        <v>27.003787878787875</v>
       </c>
       <c r="F16" s="1">
-        <v>34.5</v>
+        <v>30.1</v>
       </c>
       <c r="G16" s="1">
-        <v>28.3</v>
+        <v>23.9</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I16" s="1">
-        <v>13.37142857142857</v>
+        <v>10.888636363636364</v>
       </c>
       <c r="J16" s="1">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>83.0416666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1459,31 +1466,34 @@
         <v>2025</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" s="1">
-        <v>31.908695652173911</v>
+        <v>26.907518796992481</v>
       </c>
       <c r="F17" s="1">
-        <v>33.4</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
-        <v>29.2</v>
+        <v>23.8</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I17" s="1">
-        <v>16.290476190476191</v>
+        <v>9.8424000000000031</v>
       </c>
       <c r="J17" s="1">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19.8</v>
+      </c>
+      <c r="K17" s="2">
+        <v>86.413492063492058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1491,31 +1501,34 @@
         <v>2025</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" s="1">
-        <v>31.052083333333332</v>
+        <v>26.559420289855076</v>
       </c>
       <c r="F18" s="1">
-        <v>34.4</v>
+        <v>29.9</v>
       </c>
       <c r="G18" s="1">
-        <v>29.7</v>
+        <v>23.1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I18" s="1">
-        <v>11.841666666666667</v>
+        <v>10.010869565217396</v>
       </c>
       <c r="J18" s="1">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>88.616666666666646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1523,31 +1536,34 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" s="1">
-        <v>30.939583333333331</v>
+        <v>25.510948905109494</v>
       </c>
       <c r="F19" s="1">
-        <v>34.1</v>
+        <v>28.8</v>
       </c>
       <c r="G19" s="1">
-        <v>24.1</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>13.045833333333336</v>
+        <v>9.4999999999999947</v>
       </c>
       <c r="J19" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24.9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>93.706349206349131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1555,31 +1571,34 @@
         <v>2025</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" s="1">
-        <v>30.256603773584906</v>
+        <v>25.225362318840585</v>
       </c>
       <c r="F20" s="1">
-        <v>32.700000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="G20" s="1">
-        <v>27.3</v>
+        <v>20.8</v>
       </c>
       <c r="H20" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>14.339622641509433</v>
+        <v>7.1492424242424262</v>
       </c>
       <c r="J20" s="1">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17.3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>99.713636363636397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1587,31 +1606,34 @@
         <v>2025</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" s="1">
-        <v>29.15094339622642</v>
+        <v>25.783333333333335</v>
       </c>
       <c r="F21" s="1">
-        <v>32</v>
+        <v>30.2</v>
       </c>
       <c r="G21" s="1">
-        <v>26.4</v>
+        <v>22.3</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
-        <v>11.615094339622642</v>
+        <v>6.0086956521739152</v>
       </c>
       <c r="J21" s="1">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21.4</v>
+      </c>
+      <c r="K21" s="2">
+        <v>119.76884057971009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1619,31 +1641,34 @@
         <v>2025</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" s="1">
-        <v>29.87446808510639</v>
+        <v>26.431060606060608</v>
       </c>
       <c r="F22" s="1">
-        <v>31.7</v>
+        <v>30.6</v>
       </c>
       <c r="G22" s="1">
-        <v>27.2</v>
+        <v>23.1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="I22" s="1">
-        <v>11.17234042553191</v>
+        <v>10.043939393939388</v>
       </c>
       <c r="J22" s="1">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22.2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>111.66439393939388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1651,31 +1676,34 @@
         <v>2025</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" s="1">
-        <v>30.128571428571437</v>
+        <v>26.003472222222232</v>
       </c>
       <c r="F23" s="1">
-        <v>33.799999999999997</v>
+        <v>30.6</v>
       </c>
       <c r="G23" s="1">
-        <v>24.8</v>
+        <v>22.7</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>13.342105263157896</v>
+        <v>8.3993055555555625</v>
       </c>
       <c r="J23" s="1">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19.8</v>
+      </c>
+      <c r="K23" s="2">
+        <v>99.034027777777681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1683,31 +1711,34 @@
         <v>2025</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" s="1">
-        <v>31.094736842105274</v>
+        <v>25.729861111111116</v>
       </c>
       <c r="F24" s="1">
-        <v>33.700000000000003</v>
+        <v>30.2</v>
       </c>
       <c r="G24" s="1">
-        <v>27.3</v>
+        <v>22.3</v>
       </c>
       <c r="H24" s="1">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>15.229090909090912</v>
+        <v>8.1493055555555642</v>
       </c>
       <c r="J24" s="1">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18.7</v>
+      </c>
+      <c r="K24" s="2">
+        <v>105.51319444444442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1715,31 +1746,34 @@
         <v>2025</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" s="1">
-        <v>30.365517241379319</v>
+        <v>25.837878787878783</v>
       </c>
       <c r="F25" s="1">
-        <v>32.700000000000003</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1">
-        <v>27</v>
+        <v>22.3</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I25" s="1">
-        <v>12.975438596491225</v>
+        <v>5.9045454545454543</v>
       </c>
       <c r="J25" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14.2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>105.69545454545454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1747,31 +1781,34 @@
         <v>2025</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" s="1">
-        <v>31.463157894736849</v>
+        <v>25.567910447761186</v>
       </c>
       <c r="F26" s="1">
-        <v>33.5</v>
+        <v>29.1</v>
       </c>
       <c r="G26" s="1">
-        <v>27.8</v>
+        <v>23.7</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I26" s="1">
-        <v>12.996296296296293</v>
+        <v>5.9888888888888889</v>
       </c>
       <c r="J26" s="1">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14.2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>110.90079365079362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1779,31 +1816,34 @@
         <v>2025</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" s="1">
-        <v>29.182142857142853</v>
+        <v>26.516666666666673</v>
       </c>
       <c r="F27" s="1">
-        <v>32.299999999999997</v>
+        <v>30.5</v>
       </c>
       <c r="G27" s="1">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>10.751851851851855</v>
+        <v>7.9517543859649145</v>
       </c>
       <c r="J27" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K27" s="2">
+        <v>102.96754385964911</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1811,31 +1851,34 @@
         <v>2025</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" s="1">
-        <v>29.214814814814819</v>
+        <v>26.592063492063478</v>
       </c>
       <c r="F28" s="1">
-        <v>31.8</v>
+        <v>30.9</v>
       </c>
       <c r="G28" s="1">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="H28" s="1">
-        <v>17.399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="1">
-        <v>11.481481481481486</v>
+        <v>9.8222222222222175</v>
       </c>
       <c r="J28" s="1">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="K28" s="2">
+        <v>94.95952380952383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1843,31 +1886,34 @@
         <v>2025</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" s="1">
-        <v>30.842857142857138</v>
+        <v>25.884920634920636</v>
       </c>
       <c r="F29" s="1">
-        <v>32.700000000000003</v>
+        <v>29.9</v>
       </c>
       <c r="G29" s="1">
-        <v>27.7</v>
+        <v>23</v>
       </c>
       <c r="H29" s="1">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I29" s="1">
-        <v>14.025000000000004</v>
+        <v>10.864166666666671</v>
       </c>
       <c r="J29" s="1">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="K29" s="2">
+        <v>106.26166666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1875,31 +1921,34 @@
         <v>2025</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" s="1">
-        <v>31.265384615384612</v>
+        <v>26.903787878787888</v>
       </c>
       <c r="F30" s="1">
-        <v>33.4</v>
+        <v>29.8</v>
       </c>
       <c r="G30" s="1">
-        <v>28.5</v>
+        <v>24.5</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I30" s="1">
-        <v>14.472549019607843</v>
+        <v>13.782499999999992</v>
       </c>
       <c r="J30" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25.1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>80.752500000000055</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1907,31 +1956,34 @@
         <v>2025</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" s="1">
-        <v>28.808888888888887</v>
+        <v>25.970138888888886</v>
       </c>
       <c r="F31" s="1">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="G31" s="1">
-        <v>26.1</v>
+        <v>22.1</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>10.511111111111111</v>
+        <v>9.451449275362318</v>
       </c>
       <c r="J31" s="1">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23.3</v>
+      </c>
+      <c r="K31" s="2">
+        <v>104.60362318840579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1939,28 +1991,31 @@
         <v>2025</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" s="1">
-        <v>30.563999999999986</v>
+        <v>25.738686131386874</v>
       </c>
       <c r="F32" s="1">
-        <v>32.6</v>
+        <v>30.6</v>
       </c>
       <c r="G32" s="1">
-        <v>28.5</v>
+        <v>22.1</v>
       </c>
       <c r="H32" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>13.728000000000003</v>
+        <v>9.1708029197080254</v>
       </c>
       <c r="J32" s="1">
         <v>21.2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>106.36788321167884</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1971,31 +2026,31 @@
         <v>2025</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>27.821527777777774</v>
+        <v>30.31818181818182</v>
       </c>
       <c r="F33" s="1">
-        <v>34.4</v>
+        <v>36.1</v>
       </c>
       <c r="G33" s="1">
-        <v>23.3</v>
+        <v>26.4</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I33" s="1">
-        <v>2.9798611111111093</v>
-      </c>
-      <c r="J33">
-        <v>5.5</v>
+        <v>3.4166666666666652</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5.6</v>
       </c>
       <c r="K33" s="2">
-        <v>133.3784722222222</v>
+        <v>108.97142857142865</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2006,31 +2061,31 @@
         <v>2025</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>27.878472222222229</v>
+        <v>30.227083333333344</v>
       </c>
       <c r="F34" s="1">
-        <v>33.799999999999997</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1">
-        <v>23.8</v>
+        <v>26.3</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>3.2534722222222219</v>
-      </c>
-      <c r="J34">
-        <v>6.7</v>
+        <v>3.1180555555555558</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5.8</v>
       </c>
       <c r="K34" s="2">
-        <v>123.99375000000002</v>
+        <v>125.16086956521737</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2041,31 +2096,31 @@
         <v>2025</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>28.334751773049639</v>
+        <v>30.654861111111117</v>
       </c>
       <c r="F35" s="1">
-        <v>35.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G35" s="1">
-        <v>23.5</v>
+        <v>27.1</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>3.0704545454545458</v>
-      </c>
-      <c r="J35">
-        <v>6.5</v>
+        <v>3.8027777777777754</v>
+      </c>
+      <c r="J35" s="1">
+        <v>6</v>
       </c>
       <c r="K35" s="2">
-        <v>134.61060606060605</v>
+        <v>108.83611111111108</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2076,31 +2131,31 @@
         <v>2025</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>29.155797101449274</v>
+        <v>30.293750000000014</v>
       </c>
       <c r="F36" s="1">
-        <v>36.700000000000003</v>
+        <v>35.6</v>
       </c>
       <c r="G36" s="1">
-        <v>25.2</v>
+        <v>27</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I36" s="1">
-        <v>3.5309523809523808</v>
-      </c>
-      <c r="J36">
-        <v>6.1</v>
+        <v>3.5696969696969694</v>
+      </c>
+      <c r="J36" s="1">
+        <v>6.6</v>
       </c>
       <c r="K36" s="2">
-        <v>113.69920634920638</v>
+        <v>112.88906250000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2111,31 +2166,31 @@
         <v>2025</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>28.829861111111125</v>
+        <v>30.527083333333337</v>
       </c>
       <c r="F37" s="1">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="G37" s="1">
-        <v>25.3</v>
+        <v>27.2</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>3.6027972027972033</v>
-      </c>
-      <c r="J37">
-        <v>6.7</v>
+        <v>3.837301587301587</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7</v>
       </c>
       <c r="K37" s="2">
-        <v>116.27391304347826</v>
+        <v>101.13015873015868</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2146,31 +2201,31 @@
         <v>2025</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>28.424999999999997</v>
+        <v>30.234027777777783</v>
       </c>
       <c r="F38" s="1">
-        <v>35.4</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G38" s="1">
-        <v>24.1</v>
+        <v>26.6</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>3.265079365079365</v>
-      </c>
-      <c r="J38">
-        <v>7.9</v>
+        <v>3.6333333333333333</v>
+      </c>
+      <c r="J38" s="1">
+        <v>6.3</v>
       </c>
       <c r="K38" s="2">
-        <v>128.87777777777777</v>
+        <v>111.93768115942029</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2181,31 +2236,31 @@
         <v>2025</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>7</v>
       </c>
       <c r="E39" s="1">
-        <v>28.292361111111109</v>
+        <v>30.006521739130431</v>
       </c>
       <c r="F39" s="1">
-        <v>34.4</v>
+        <v>36.1</v>
       </c>
       <c r="G39" s="1">
-        <v>25.4</v>
+        <v>26.6</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I39" s="1">
-        <v>3.2729166666666663</v>
-      </c>
-      <c r="J39">
-        <v>7.3</v>
+        <v>4.1037878787878785</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8</v>
       </c>
       <c r="K39" s="2">
-        <v>109.59652777777779</v>
+        <v>104.27575757575758</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2216,31 +2271,31 @@
         <v>2025</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>8</v>
       </c>
       <c r="E40" s="1">
-        <v>26.986805555555542</v>
+        <v>29.686805555555551</v>
       </c>
       <c r="F40" s="1">
-        <v>32.9</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G40" s="1">
-        <v>24.2</v>
+        <v>26.5</v>
       </c>
       <c r="H40" s="1">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="I40" s="1">
-        <v>2.7384057971014495</v>
-      </c>
-      <c r="J40">
-        <v>9.4</v>
+        <v>3.725757575757576</v>
+      </c>
+      <c r="J40" s="1">
+        <v>7.4</v>
       </c>
       <c r="K40" s="2">
-        <v>147.76884057971026</v>
+        <v>113.57272727272725</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2251,31 +2306,31 @@
         <v>2025</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>9</v>
       </c>
       <c r="E41" s="1">
-        <v>27.256249999999994</v>
+        <v>29.811940298507459</v>
       </c>
       <c r="F41" s="1">
-        <v>33.4</v>
+        <v>36.1</v>
       </c>
       <c r="G41" s="1">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="H41" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>3.1724637681159411</v>
-      </c>
-      <c r="J41">
-        <v>6.8</v>
+        <v>4.2041666666666648</v>
+      </c>
+      <c r="J41" s="1">
+        <v>7.6</v>
       </c>
       <c r="K41" s="2">
-        <v>123.96014492753623</v>
+        <v>112.25333333333339</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2286,31 +2341,31 @@
         <v>2025</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>10</v>
       </c>
       <c r="E42" s="1">
-        <v>27.747916666666669</v>
+        <v>29.410416666666656</v>
       </c>
       <c r="F42" s="1">
-        <v>35.5</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G42" s="1">
-        <v>22.7</v>
+        <v>26.9</v>
       </c>
       <c r="H42" s="1">
         <v>0.2</v>
       </c>
       <c r="I42" s="1">
-        <v>3.1270833333333332</v>
-      </c>
-      <c r="J42">
-        <v>5.6</v>
+        <v>3.9381944444444446</v>
+      </c>
+      <c r="J42" s="1">
+        <v>7.9</v>
       </c>
       <c r="K42" s="2">
-        <v>129.1597222222222</v>
+        <v>115.12916666666661</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2321,31 +2376,31 @@
         <v>2025</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>11</v>
       </c>
       <c r="E43" s="1">
-        <v>28.728472222222226</v>
+        <v>29.282608695652179</v>
       </c>
       <c r="F43" s="1">
-        <v>36.1</v>
+        <v>32.9</v>
       </c>
       <c r="G43" s="1">
-        <v>24.7</v>
+        <v>26.2</v>
       </c>
       <c r="H43" s="1">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="I43" s="1">
-        <v>3.1944444444444451</v>
-      </c>
-      <c r="J43">
-        <v>6.8</v>
+        <v>3.4916666666666671</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6.9</v>
       </c>
       <c r="K43" s="2">
-        <v>118.59583333333333</v>
+        <v>114.69545454545458</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2356,31 +2411,31 @@
         <v>2025</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>12</v>
       </c>
       <c r="E44" s="1">
-        <v>29.020833333333329</v>
+        <v>30.236231884057979</v>
       </c>
       <c r="F44" s="1">
         <v>35.5</v>
       </c>
       <c r="G44" s="1">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="I44" s="1">
-        <v>3.3902777777777771</v>
-      </c>
-      <c r="J44">
-        <v>6.2</v>
+        <v>4.6456521739130432</v>
+      </c>
+      <c r="J44" s="1">
+        <v>9.1999999999999993</v>
       </c>
       <c r="K44" s="2">
-        <v>121.01736111111111</v>
+        <v>102.09637681159424</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2391,31 +2446,31 @@
         <v>2025</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>13</v>
       </c>
       <c r="E45" s="1">
-        <v>29.091549295774673</v>
+        <v>29.995833333333351</v>
       </c>
       <c r="F45" s="1">
-        <v>36.4</v>
+        <v>34.4</v>
       </c>
       <c r="G45" s="1">
-        <v>24.6</v>
+        <v>26.9</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I45" s="1">
-        <v>3.047826086956523</v>
-      </c>
-      <c r="J45">
-        <v>6.3</v>
+        <v>4.4212121212121218</v>
+      </c>
+      <c r="J45" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="K45" s="2">
-        <v>125.56666666666665</v>
+        <v>100.46590909090911</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2426,31 +2481,31 @@
         <v>2025</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>14</v>
       </c>
       <c r="E46" s="1">
-        <v>29.392142857142854</v>
+        <v>30.396527777777791</v>
       </c>
       <c r="F46" s="1">
-        <v>36.4</v>
+        <v>35.1</v>
       </c>
       <c r="G46" s="1">
-        <v>25.7</v>
+        <v>26.8</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="1">
-        <v>3.5246376811594216</v>
-      </c>
-      <c r="J46">
-        <v>6.6</v>
+        <v>3.9696969696969715</v>
+      </c>
+      <c r="J46" s="1">
+        <v>7.8</v>
       </c>
       <c r="K46" s="2">
-        <v>113.7652173913043</v>
+        <v>103.44545454545451</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2461,31 +2516,31 @@
         <v>2025</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>15</v>
       </c>
       <c r="E47" s="1">
-        <v>29.16521739130436</v>
+        <v>30.586013986013988</v>
       </c>
       <c r="F47" s="1">
-        <v>35.200000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="G47" s="1">
-        <v>25.4</v>
+        <v>27.8</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I47" s="1">
-        <v>4.0333333333333314</v>
-      </c>
-      <c r="J47">
-        <v>6.8</v>
+        <v>3.8007299270072989</v>
+      </c>
+      <c r="J47" s="1">
+        <v>8.1</v>
       </c>
       <c r="K47" s="2">
-        <v>111.82463768115946</v>
+        <v>103.70145985401463</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,31 +2551,31 @@
         <v>2025</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" s="1">
-        <v>28.684615384615395</v>
+        <v>30.91278195488723</v>
       </c>
       <c r="F48" s="1">
-        <v>35.299999999999997</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="G48" s="1">
-        <v>24.9</v>
+        <v>27.9</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>3.8550724637681153</v>
-      </c>
-      <c r="J48">
-        <v>7.8</v>
+        <v>4.1049586776859517</v>
+      </c>
+      <c r="J48" s="1">
+        <v>7.5</v>
       </c>
       <c r="K48" s="2">
-        <v>110.72101449275367</v>
+        <v>95.070247933884289</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2531,31 +2586,31 @@
         <v>2025</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>17</v>
       </c>
       <c r="E49" s="1">
-        <v>28.679166666666674</v>
+        <v>30.10681818181817</v>
       </c>
       <c r="F49" s="1">
-        <v>35.1</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G49" s="1">
-        <v>23.9</v>
+        <v>26.1</v>
       </c>
       <c r="H49" s="1">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>3.465277777777779</v>
-      </c>
-      <c r="J49">
-        <v>6.7</v>
+        <v>3.8590909090909107</v>
+      </c>
+      <c r="J49" s="1">
+        <v>7.5</v>
       </c>
       <c r="K49" s="2">
-        <v>117.71944444444446</v>
+        <v>95.256060606060572</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2566,31 +2621,31 @@
         <v>2025</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>18</v>
       </c>
       <c r="E50" s="1">
-        <v>28.12222222222222</v>
+        <v>29.269852941176481</v>
       </c>
       <c r="F50" s="1">
-        <v>35.799999999999997</v>
+        <v>33.1</v>
       </c>
       <c r="G50" s="1">
-        <v>24.2</v>
+        <v>26.4</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="I50" s="1">
-        <v>3.2514084507042256</v>
-      </c>
-      <c r="J50">
-        <v>6.8</v>
+        <v>3.8119047619047635</v>
+      </c>
+      <c r="J50" s="1">
+        <v>8</v>
       </c>
       <c r="K50" s="2">
-        <v>114.89097222222229</v>
+        <v>99.998412698412707</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2601,31 +2656,31 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>19</v>
       </c>
       <c r="E51" s="1">
-        <v>27.641666666666676</v>
+        <v>29.276811594202886</v>
       </c>
       <c r="F51" s="1">
-        <v>35.299999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G51" s="1">
-        <v>23.4</v>
+        <v>25.2</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I51" s="1">
-        <v>4.0398550724637676</v>
-      </c>
-      <c r="J51">
-        <v>8.9</v>
+        <v>3.2484848484848503</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6.4</v>
       </c>
       <c r="K51" s="2">
-        <v>107.1536231884058</v>
+        <v>97.099999999999966</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2636,31 +2691,31 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>20</v>
       </c>
       <c r="E52" s="1">
-        <v>26.661594202898552</v>
+        <v>29.736690647482032</v>
       </c>
       <c r="F52" s="1">
-        <v>32.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="G52" s="1">
-        <v>23.8</v>
+        <v>25.6</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I52" s="1">
-        <v>3.0888888888888899</v>
-      </c>
-      <c r="J52">
-        <v>7.2</v>
+        <v>2.9188405797101442</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5.4</v>
       </c>
       <c r="K52" s="2">
-        <v>125.6142857142857</v>
+        <v>107.27753623188403</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2671,31 +2726,31 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>21</v>
       </c>
       <c r="E53" s="1">
-        <v>25.506944444444432</v>
+        <v>29.372222222222231</v>
       </c>
       <c r="F53" s="1">
-        <v>29.9</v>
+        <v>33.9</v>
       </c>
       <c r="G53" s="1">
-        <v>22.7</v>
+        <v>27.1</v>
       </c>
       <c r="H53" s="1">
-        <v>61.4</v>
+        <v>3.2</v>
       </c>
       <c r="I53" s="1">
-        <v>2.8756944444444441</v>
-      </c>
-      <c r="J53">
-        <v>13.2</v>
+        <v>3.3985507246376803</v>
+      </c>
+      <c r="J53" s="1">
+        <v>6.8</v>
       </c>
       <c r="K53" s="2">
-        <v>119.84305555555551</v>
+        <v>104.30942028985507</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2706,31 +2761,31 @@
         <v>2025</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>22</v>
       </c>
       <c r="E54" s="1">
-        <v>27.440579710144942</v>
+        <v>29.922916666666652</v>
       </c>
       <c r="F54" s="1">
-        <v>33.9</v>
+        <v>35.1</v>
       </c>
       <c r="G54" s="1">
-        <v>23</v>
+        <v>26.5</v>
       </c>
       <c r="H54" s="1">
-        <v>16.399999999999999</v>
+        <v>4</v>
       </c>
       <c r="I54" s="1">
-        <v>3.8125984251968514</v>
-      </c>
-      <c r="J54">
-        <v>6.7</v>
+        <v>3.7399999999999993</v>
+      </c>
+      <c r="J54" s="1">
+        <v>6.4</v>
       </c>
       <c r="K54" s="2">
-        <v>112.87936507936507</v>
+        <v>99.741666666666674</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2741,31 +2796,31 @@
         <v>2025</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>23</v>
       </c>
       <c r="E55" s="1">
-        <v>29.091666666666672</v>
+        <v>30.083333333333332</v>
       </c>
       <c r="F55" s="1">
         <v>34.799999999999997</v>
       </c>
       <c r="G55" s="1">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I55" s="1">
-        <v>4.1591240875912394</v>
-      </c>
-      <c r="J55">
-        <v>7.4</v>
+        <v>3.5361111111111105</v>
+      </c>
+      <c r="J55" s="1">
+        <v>7.3</v>
       </c>
       <c r="K55" s="2">
-        <v>108.47883211678828</v>
+        <v>100.87638888888887</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2776,31 +2831,31 @@
         <v>2025</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>24</v>
       </c>
       <c r="E56" s="1">
-        <v>28.941666666666656</v>
+        <v>29.751388888888886</v>
       </c>
       <c r="F56" s="1">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="G56" s="1">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I56" s="1">
-        <v>4.0065040650406498</v>
-      </c>
-      <c r="J56">
-        <v>6.7</v>
+        <v>3.0772727272727272</v>
+      </c>
+      <c r="J56" s="1">
+        <v>6.8</v>
       </c>
       <c r="K56" s="2">
-        <v>110.89478260869564</v>
+        <v>99.946969696969703</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,31 +2866,31 @@
         <v>2025</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" s="1">
-        <v>29.059027777777779</v>
+        <v>29.505555555555553</v>
       </c>
       <c r="F57" s="1">
-        <v>36.1</v>
+        <v>35.1</v>
       </c>
       <c r="G57" s="1">
-        <v>24.5</v>
+        <v>27.6</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>3.5135714285714306</v>
-      </c>
-      <c r="J57">
-        <v>6.2</v>
+        <v>3.1357142857142866</v>
+      </c>
+      <c r="J57" s="1">
+        <v>7</v>
       </c>
       <c r="K57" s="2">
-        <v>114.17426470588236</v>
+        <v>109.18211382113816</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2846,31 +2901,31 @@
         <v>2025</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>26</v>
       </c>
       <c r="E58" s="1">
-        <v>27.819718309859173</v>
+        <v>30.073188405797119</v>
       </c>
       <c r="F58" s="1">
-        <v>34.799999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="G58" s="1">
-        <v>24.4</v>
+        <v>27.2</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I58" s="1">
-        <v>3.3971014492753628</v>
-      </c>
-      <c r="J58">
-        <v>6.6</v>
+        <v>3.1316666666666668</v>
+      </c>
+      <c r="J58" s="1">
+        <v>7.3</v>
       </c>
       <c r="K58" s="2">
-        <v>111.37971014492754</v>
+        <v>117.67666666666666</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2881,31 +2936,31 @@
         <v>2025</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>27</v>
       </c>
       <c r="E59" s="1">
-        <v>26.777536231884049</v>
+        <v>29.699270072992707</v>
       </c>
       <c r="F59" s="1">
         <v>34.299999999999997</v>
       </c>
       <c r="G59" s="1">
-        <v>23.7</v>
+        <v>27.3</v>
       </c>
       <c r="H59" s="1">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I59" s="1">
-        <v>3.2152173913043511</v>
-      </c>
-      <c r="J59">
-        <v>10.8</v>
+        <v>3.8618320610687018</v>
+      </c>
+      <c r="J59" s="1">
+        <v>7.3</v>
       </c>
       <c r="K59" s="2">
-        <v>119.4585185185185</v>
+        <v>106.387786259542</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2916,31 +2971,31 @@
         <v>2025</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>28</v>
       </c>
       <c r="E60" s="1">
-        <v>27.851388888888916</v>
+        <v>29.395683453237428</v>
       </c>
       <c r="F60" s="1">
-        <v>33.799999999999997</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="G60" s="1">
-        <v>24.3</v>
+        <v>26.8</v>
       </c>
       <c r="H60" s="1">
-        <v>24.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I60" s="1">
-        <v>4.1605839416058359</v>
-      </c>
-      <c r="J60">
-        <v>6.6</v>
+        <v>4.0133858267716533</v>
+      </c>
+      <c r="J60" s="1">
+        <v>9.1</v>
       </c>
       <c r="K60" s="2">
-        <v>114.98985507246375</v>
+        <v>108.94251968503934</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2951,31 +3006,31 @@
         <v>2025</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>29</v>
       </c>
       <c r="E61" s="1">
-        <v>28.2326388888889</v>
+        <v>30.33120567375887</v>
       </c>
       <c r="F61" s="1">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="G61" s="1">
-        <v>24.2</v>
+        <v>26.8</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I61" s="1">
-        <v>3.7456521739130451</v>
-      </c>
-      <c r="J61">
-        <v>7</v>
+        <v>4.794656488549621</v>
+      </c>
+      <c r="J61" s="1">
+        <v>9.6</v>
       </c>
       <c r="K61" s="2">
-        <v>115.76159420289854</v>
+        <v>95.95158730158731</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2986,31 +3041,31 @@
         <v>2025</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>30</v>
       </c>
       <c r="E62" s="1">
-        <v>27.397916666666671</v>
+        <v>29.684722222222238</v>
       </c>
       <c r="F62" s="1">
-        <v>32.700000000000003</v>
+        <v>35.4</v>
       </c>
       <c r="G62" s="1">
-        <v>23.8</v>
+        <v>24.9</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>3.3224637681159432</v>
-      </c>
-      <c r="J62">
-        <v>8.1</v>
+        <v>4.1456521739130459</v>
+      </c>
+      <c r="J62" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="K62" s="2">
-        <v>108.51811594202891</v>
+        <v>100.72101449275357</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3021,226 +3076,2208 @@
         <v>2025</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>31</v>
       </c>
       <c r="E63" s="1">
-        <v>27.832394366197171</v>
+        <v>29.59225352112675</v>
       </c>
       <c r="F63" s="1">
-        <v>33.6</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G63" s="1">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>3.8267175572519081</v>
+      </c>
+      <c r="J63" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K63" s="2">
+        <v>103.23129770992367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>2025</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>27.425757575757576</v>
+      </c>
+      <c r="F64" s="1">
+        <v>35</v>
+      </c>
+      <c r="G64" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2.0039682539682531</v>
+      </c>
+      <c r="J64" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="K64" s="2">
+        <v>104.73439999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>2025</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>26.733333333333327</v>
+      </c>
+      <c r="F65" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G65" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="H65" s="1">
         <v>0</v>
       </c>
-      <c r="I63" s="1">
-        <v>3.2261538461538444</v>
-      </c>
-      <c r="J63">
+      <c r="I65" s="1">
+        <v>1.8652777777777787</v>
+      </c>
+      <c r="J65" s="1">
+        <v>10</v>
+      </c>
+      <c r="K65" s="2">
+        <v>128.94513888888889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>2025</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>27.573611111111102</v>
+      </c>
+      <c r="F66" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G66" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="H66" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2.3347222222222213</v>
+      </c>
+      <c r="J66" s="1">
         <v>6.2</v>
       </c>
-      <c r="K63" s="2">
-        <v>125.20230769230768</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="K66" s="2">
+        <v>94.133333333333283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>2025</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>26.943884892086331</v>
+      </c>
+      <c r="F67" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="G67" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2.2416058394160583</v>
+      </c>
+      <c r="J67" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="K67" s="2">
+        <v>122.96131386861312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>2025</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>27.687969924812034</v>
+      </c>
+      <c r="F68" s="1">
+        <v>34</v>
+      </c>
+      <c r="G68" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2.5217391304347845</v>
+      </c>
+      <c r="J68" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="K68" s="2">
+        <v>99.806956521739096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>2025</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1">
+        <v>27.120289855072457</v>
+      </c>
+      <c r="F69" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G69" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2.495238095238097</v>
+      </c>
+      <c r="J69" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="K69" s="2">
+        <v>92.770634920634919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>2025</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1">
+        <v>26.721739130434781</v>
+      </c>
+      <c r="F70" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G70" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2.6431818181818185</v>
+      </c>
+      <c r="J70" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="K70" s="2">
+        <v>83.880303030303011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>2025</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>26.886231884057953</v>
+      </c>
+      <c r="F71" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="G71" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2.8090909090909104</v>
+      </c>
+      <c r="J71" s="1">
+        <v>7</v>
+      </c>
+      <c r="K71" s="2">
+        <v>76.671212121212093</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>2025</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1">
+        <v>27.126984126984137</v>
+      </c>
+      <c r="F72" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>23</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>3.1104000000000012</v>
+      </c>
+      <c r="J72" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="K72" s="2">
+        <v>97.977599999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>2025</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>26.895488721804512</v>
+      </c>
+      <c r="F73" s="1">
+        <v>34</v>
+      </c>
+      <c r="G73" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>3.6251968503937007</v>
+      </c>
+      <c r="J73" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="K73" s="2">
+        <v>102.61889763779524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>2025</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1">
+        <v>26.050000000000011</v>
+      </c>
+      <c r="F74" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="G74" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H74" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2.8886363636363663</v>
+      </c>
+      <c r="J74" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K74" s="2">
+        <v>89.282575757575728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>2025</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1">
+        <v>25.495138888888896</v>
+      </c>
+      <c r="F75" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1">
+        <v>2.3159420289855079</v>
+      </c>
+      <c r="J75" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="K75" s="2">
+        <v>86.44347826086954</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>2025</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1">
+        <v>25.71458333333333</v>
+      </c>
+      <c r="F76" s="1">
+        <v>31</v>
+      </c>
+      <c r="G76" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H76" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2.7037878787878777</v>
+      </c>
+      <c r="J76" s="1">
+        <v>8</v>
+      </c>
+      <c r="K76" s="2">
+        <v>81.665891472868225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>2025</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1">
+        <v>25.315217391304326</v>
+      </c>
+      <c r="F77" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="G77" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2.082608695652175</v>
+      </c>
+      <c r="J77" s="1">
+        <v>7</v>
+      </c>
+      <c r="K77" s="2">
+        <v>81.750724637681145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>2025</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1">
+        <v>24.929710144927544</v>
+      </c>
+      <c r="F78" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="G78" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H78" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2.1036231884057974</v>
+      </c>
+      <c r="J78" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K78" s="2">
+        <v>112.59130434782611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>2025</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1">
+        <v>25.112499999999962</v>
+      </c>
+      <c r="F79" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="H79" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1.6499999999999988</v>
+      </c>
+      <c r="J79" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="K79" s="2">
+        <v>137.60724637681156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>2025</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>17</v>
+      </c>
+      <c r="E80" s="1">
+        <v>25.746376811594203</v>
+      </c>
+      <c r="F80" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="G80" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I80" s="1">
+        <v>2.122727272727273</v>
+      </c>
+      <c r="J80" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="K80" s="2">
+        <v>101.42424242424245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>2025</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1">
+        <v>25.606249999999992</v>
+      </c>
+      <c r="F81" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="G81" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2.3510948905109501</v>
+      </c>
+      <c r="J81" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="K81" s="2">
+        <v>86.796376811594186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>2025</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>19</v>
+      </c>
+      <c r="E82" s="1">
+        <v>26.077272727272732</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="G82" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I82" s="1">
+        <v>2.215873015873016</v>
+      </c>
+      <c r="J82" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="K82" s="2">
+        <v>90.587301587301582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>2025</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83" s="1">
+        <v>24.184027777777757</v>
+      </c>
+      <c r="F83" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="G83" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1.7291666666666661</v>
+      </c>
+      <c r="J83" s="1">
+        <v>7</v>
+      </c>
+      <c r="K83" s="2">
+        <v>176.33333333333331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>2025</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1">
+        <v>25.581944444444435</v>
+      </c>
+      <c r="F84" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="G84" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>2.0898550724637679</v>
+      </c>
+      <c r="J84" s="1">
+        <v>6</v>
+      </c>
+      <c r="K84" s="2">
+        <v>115.68623188405797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>2025</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>22</v>
+      </c>
+      <c r="E85" s="1">
+        <v>25.900704225352115</v>
+      </c>
+      <c r="F85" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="G85" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I85" s="1">
+        <v>2.6931818181818188</v>
+      </c>
+      <c r="J85" s="1">
+        <v>7</v>
+      </c>
+      <c r="K85" s="2">
+        <v>83.735606060606045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>2025</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>23</v>
+      </c>
+      <c r="E86" s="1">
+        <v>26.315277777777801</v>
+      </c>
+      <c r="F86" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="G86" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I86" s="1">
+        <v>2.2265734265734256</v>
+      </c>
+      <c r="J86" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="K86" s="2">
+        <v>89.3715277777778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>2025</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>24</v>
+      </c>
+      <c r="E87" s="1">
+        <v>25.360144927536226</v>
+      </c>
+      <c r="F87" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="G87" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1.9884057971014508</v>
+      </c>
+      <c r="J87" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="K87" s="2">
+        <v>181.70362318840583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>2025</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>25</v>
+      </c>
+      <c r="E88" s="1">
+        <v>24.560294117647064</v>
+      </c>
+      <c r="F88" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="G88" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>8</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1.8537878787878794</v>
+      </c>
+      <c r="J88" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="K88" s="2">
+        <v>162.40984848484854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>2025</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>26</v>
+      </c>
+      <c r="E89" s="1">
+        <v>26.143478260869575</v>
+      </c>
+      <c r="F89" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="G89" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1.8248000000000004</v>
+      </c>
+      <c r="J89" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="K89" s="2">
+        <v>128.12519083969465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90">
+        <v>2025</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>27</v>
+      </c>
+      <c r="E90" s="1">
+        <v>26.627131782945717</v>
+      </c>
+      <c r="F90" s="1">
+        <v>32.1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2.9294117647058822</v>
+      </c>
+      <c r="J90" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="K90" s="2">
+        <v>81.390756302521041</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91">
+        <v>2025</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>28</v>
+      </c>
+      <c r="E91" s="1">
+        <v>25.66911764705883</v>
+      </c>
+      <c r="F91" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="G91" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2.1383333333333336</v>
+      </c>
+      <c r="J91" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="K91" s="2">
+        <v>131.43500000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <v>2025</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>29</v>
+      </c>
+      <c r="E92" s="1">
+        <v>25.539416058394146</v>
+      </c>
+      <c r="F92" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="G92" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="H92" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="I92" s="1">
+        <v>2.4561983471074376</v>
+      </c>
+      <c r="J92" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K92" s="2">
+        <v>108.57874015748031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>2025</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>30</v>
+      </c>
+      <c r="E93" s="1">
+        <v>25.083333333333325</v>
+      </c>
+      <c r="F93" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="G93" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1.9288732394366228</v>
+      </c>
+      <c r="J93" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="K93" s="2">
+        <v>119.12357142857145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <v>2025</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>31</v>
+      </c>
+      <c r="E94" s="1">
+        <v>25.457746478873243</v>
+      </c>
+      <c r="F94" s="1">
+        <v>32</v>
+      </c>
+      <c r="G94" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2.5761194029850749</v>
+      </c>
+      <c r="J94" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="K94" s="2">
+        <v>110.62769230769227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>2025</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>27.728099173553737</v>
+      </c>
+      <c r="F95" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="G95" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I95" s="1">
+        <v>8.6770642201834889</v>
+      </c>
+      <c r="J95" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="K95" s="2">
+        <v>103.20183486238531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>2025</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>26.648175182481758</v>
+      </c>
+      <c r="F96" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="G96" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I96" s="1">
+        <v>7.4717557251908442</v>
+      </c>
+      <c r="J96" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="K96" s="2">
+        <v>105.02519083969463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>2025</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>27.597916666666663</v>
+      </c>
+      <c r="F97" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G97" s="1">
+        <v>24</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I97" s="1">
+        <v>9.6034722222222211</v>
+      </c>
+      <c r="J97" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K97" s="2">
+        <v>113.24375000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98">
+        <v>2025</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>26.957638888888898</v>
+      </c>
+      <c r="F98" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="G98" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="H98" s="1">
+        <v>25</v>
+      </c>
+      <c r="I98" s="1">
+        <v>7.768840579710143</v>
+      </c>
+      <c r="J98" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="K98" s="2">
+        <v>100.73478260869567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>2025</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>27.344444444444434</v>
+      </c>
+      <c r="F99" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="G99" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I99" s="1">
+        <v>8.0322580645161334</v>
+      </c>
+      <c r="J99" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K99" s="2">
+        <v>92.515833333333347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>2025</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1">
+        <v>27.377099236641225</v>
+      </c>
+      <c r="F100" s="1">
+        <v>32</v>
+      </c>
+      <c r="G100" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>9.7565217391304326</v>
+      </c>
+      <c r="J100" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="K100" s="2">
+        <v>113.94086956521738</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101">
+        <v>2025</v>
+      </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1">
+        <v>27.019444444444449</v>
+      </c>
+      <c r="F101" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="G101" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>10.613138686131391</v>
+      </c>
+      <c r="J101" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="K101" s="2">
+        <v>110.34233576642335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>2025</v>
+      </c>
+      <c r="C102">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1">
+        <v>26.571074380165292</v>
+      </c>
+      <c r="F102" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="G102" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>8.196694214876036</v>
+      </c>
+      <c r="J102" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="K102" s="2">
+        <v>110.00991735537191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>2025</v>
+      </c>
+      <c r="C103">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1">
+        <v>26.458015267175579</v>
+      </c>
+      <c r="F103" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="G103" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="H103" s="1">
+        <v>8</v>
+      </c>
+      <c r="I103" s="1">
+        <v>9.9991228070175442</v>
+      </c>
+      <c r="J103" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="K103" s="2">
+        <v>116.31228070175443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <v>2025</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1">
+        <v>26.097222222222225</v>
+      </c>
+      <c r="F104" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I104" s="1">
+        <v>9.2458015267175622</v>
+      </c>
+      <c r="J104" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K104" s="2">
+        <v>120.28897637795274</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>2025</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>11</v>
+      </c>
+      <c r="E105" s="1">
+        <v>25.915873015873011</v>
+      </c>
+      <c r="F105" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="H105" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="I105" s="1">
+        <v>8.6973913043478337</v>
+      </c>
+      <c r="J105" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="K105" s="2">
+        <v>123.09217391304347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106">
+        <v>2025</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
+      <c r="E106" s="1">
+        <v>26.912878787878775</v>
+      </c>
+      <c r="F106" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="G106" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="H106" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="I106" s="1">
+        <v>13.52442748091603</v>
+      </c>
+      <c r="J106" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="K106" s="2">
+        <v>100.24885496183205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107">
+        <v>2025</v>
+      </c>
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1">
+        <v>26.609420289855073</v>
+      </c>
+      <c r="F107" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="G107" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="H107" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="I107" s="1">
+        <v>13.26190476190477</v>
+      </c>
+      <c r="J107" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>92.480952380952388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108">
+        <v>2025</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1">
+        <v>26.992125984251988</v>
+      </c>
+      <c r="F108" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="G108" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="H108" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I108" s="1">
+        <v>14.138260869565213</v>
+      </c>
+      <c r="J108" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="K108" s="2">
+        <v>82.703478260869531</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109">
+        <v>2025</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>15</v>
+      </c>
+      <c r="E109" s="1">
+        <v>27.247999999999987</v>
+      </c>
+      <c r="F109" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="G109" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I109" s="1">
+        <v>12.133620689655171</v>
+      </c>
+      <c r="J109" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="K109" s="2">
+        <v>76.399159663865532</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110">
+        <v>2025</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+      <c r="E110" s="1">
+        <v>27.429921259842537</v>
+      </c>
+      <c r="F110" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I110" s="1">
+        <v>12.085826771653547</v>
+      </c>
+      <c r="J110" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="K110" s="2">
+        <v>75.898425196850354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111">
+        <v>2025</v>
+      </c>
+      <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>17</v>
+      </c>
+      <c r="E111" s="1">
+        <v>27.101526717557249</v>
+      </c>
+      <c r="F111" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="G111" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>11.651145038167947</v>
+      </c>
+      <c r="J111" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K111" s="2">
+        <v>81.170992366412193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112">
+        <v>2025</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>18</v>
+      </c>
+      <c r="E112" s="1">
+        <v>25.852898550724635</v>
+      </c>
+      <c r="F112" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="G112" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I112" s="1">
+        <v>11.394166666666665</v>
+      </c>
+      <c r="J112" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="K112" s="2">
+        <v>79.800833333333372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113">
+        <v>2025</v>
+      </c>
+      <c r="C113">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>19</v>
+      </c>
+      <c r="E113" s="1">
+        <v>26.062121212121205</v>
+      </c>
+      <c r="F113" s="1">
+        <v>30</v>
+      </c>
+      <c r="G113" s="1">
+        <v>23</v>
+      </c>
+      <c r="H113" s="1">
+        <v>3</v>
+      </c>
+      <c r="I113" s="1">
+        <v>8.6090909090909129</v>
+      </c>
+      <c r="J113" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K113" s="2">
+        <v>72.924793388429762</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>2025</v>
+      </c>
+      <c r="C114">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1">
+        <v>26.485714285714277</v>
+      </c>
+      <c r="F114" s="1">
+        <v>30</v>
+      </c>
+      <c r="G114" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I114" s="1">
+        <v>7.6863999999999981</v>
+      </c>
+      <c r="J114" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="K114" s="2">
+        <v>92.026399999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>2025</v>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>21</v>
+      </c>
+      <c r="E115" s="1">
+        <v>26.283458646616523</v>
+      </c>
+      <c r="F115" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="G115" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="H115" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="I115" s="1">
+        <v>9.7545454545454486</v>
+      </c>
+      <c r="J115" s="1">
+        <v>20</v>
+      </c>
+      <c r="K115" s="2">
+        <v>124.51239669421493</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>2025</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>22</v>
+      </c>
+      <c r="E116" s="1">
+        <v>26.465034965034956</v>
+      </c>
+      <c r="F116" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="G116" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="H116" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I116" s="1">
+        <v>10.386713286713293</v>
+      </c>
+      <c r="J116" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="K116" s="2">
+        <v>87.922377622377596</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>2025</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>23</v>
+      </c>
+      <c r="E117" s="1">
+        <v>26.479166666666668</v>
+      </c>
+      <c r="F117" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="G117" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I117" s="1">
+        <v>9.41180555555556</v>
+      </c>
+      <c r="J117" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K117" s="2">
+        <v>86.087499999999963</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>2025</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>24</v>
+      </c>
+      <c r="E118" s="1">
+        <v>26.389583333333334</v>
+      </c>
+      <c r="F118" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="G118" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="H118" s="1">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1">
+        <v>8.0326086956521738</v>
+      </c>
+      <c r="J118" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="K118" s="2">
+        <v>85.350000000000009</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119">
+        <v>2025</v>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>25</v>
+      </c>
+      <c r="E119" s="1">
+        <v>26.017424242424223</v>
+      </c>
+      <c r="F119" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="G119" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I119" s="1">
+        <v>7.7454545454545505</v>
+      </c>
+      <c r="J119" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="K119" s="2">
+        <v>96.790909090909125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <v>2025</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>26</v>
+      </c>
+      <c r="E120" s="1">
+        <v>26.675000000000008</v>
+      </c>
+      <c r="F120" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="G120" s="1">
+        <v>24</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I120" s="1">
+        <v>8.8950000000000049</v>
+      </c>
+      <c r="J120" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K120" s="2">
+        <v>104.36166666666665</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <v>2025</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>27</v>
+      </c>
+      <c r="E121" s="1">
+        <v>26.260606060606055</v>
+      </c>
+      <c r="F121" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="G121" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I121" s="1">
+        <v>9.3849206349206398</v>
+      </c>
+      <c r="J121" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="K121" s="2">
+        <v>86.437301587301562</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>2025</v>
+      </c>
+      <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>28</v>
+      </c>
+      <c r="E122" s="1">
+        <v>26.437190082644644</v>
+      </c>
+      <c r="F122" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="G122" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="H122" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I122" s="1">
+        <v>11.092173913043487</v>
+      </c>
+      <c r="J122" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="K122" s="2">
+        <v>102.35217391304347</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>2025</v>
+      </c>
+      <c r="C123">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>29</v>
+      </c>
+      <c r="E123" s="1">
+        <v>27.222900763358776</v>
+      </c>
+      <c r="F123" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="G123" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I123" s="1">
+        <v>15.269599999999997</v>
+      </c>
+      <c r="J123" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="K123" s="2">
+        <v>81.100799999999978</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <v>2025</v>
+      </c>
+      <c r="C124">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>30</v>
+      </c>
+      <c r="E124" s="1">
+        <v>26.573611111111116</v>
+      </c>
+      <c r="F124" s="1">
+        <v>31</v>
+      </c>
+      <c r="G124" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I124" s="1">
+        <v>10.66376811594203</v>
+      </c>
+      <c r="J124" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="K124" s="2">
+        <v>79.662318840579758</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125">
+        <v>2025</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>31</v>
+      </c>
+      <c r="E125" s="1">
+        <v>26.581538461538457</v>
+      </c>
+      <c r="F125" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="G125" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>10.145384615384621</v>
+      </c>
+      <c r="J125" s="1">
+        <v>21</v>
+      </c>
+      <c r="K125" s="2">
+        <v>87.941732283464546</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
